--- a/CW1/Results1024Home.xlsx
+++ b/CW1/Results1024Home.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\40168766\Documents\GitHub\ConcurrentAndParallelSystems\CW1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="9780"/>
   </bookViews>
   <sheets>
     <sheet name="Kevin1024Home" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="10">
   <si>
     <t>Image Dimensions (px)</t>
   </si>
@@ -42,11 +47,14 @@
   <si>
     <t>Average:</t>
   </si>
+  <si>
+    <t>Fixed Parallel For</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -594,6 +602,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -641,7 +652,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -676,7 +687,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -887,8 +898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="O148" sqref="O148:P148"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="N147" sqref="N147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3534,7 +3545,7 @@
         <v>5</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="O113" s="1" t="s">
         <v>7</v>
@@ -3695,6 +3706,20 @@
         <v>881369</v>
       </c>
       <c r="Q120" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="N121" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O121" s="2">
+        <v>256</v>
+      </c>
+      <c r="P121" s="2">
+        <v>850717</v>
+      </c>
+      <c r="Q121" s="2">
         <v>9</v>
       </c>
     </row>
@@ -3718,10 +3743,24 @@
       </c>
       <c r="P124" s="2">
         <f>AVERAGE(P114:P123)</f>
-        <v>878189.85714285716</v>
-      </c>
-    </row>
-    <row r="136" spans="3:16" x14ac:dyDescent="0.25">
+        <v>874755.75</v>
+      </c>
+    </row>
+    <row r="135" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="N135" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O135" s="2">
+        <v>256</v>
+      </c>
+      <c r="P135" s="2">
+        <v>805825</v>
+      </c>
+      <c r="Q135" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="136" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C136" s="3" t="s">
         <v>8</v>
       </c>
@@ -3739,9 +3778,9 @@
       <c r="O136" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P136" s="2" t="e">
+      <c r="P136" s="2">
         <f>AVERAGE(P126:P135)</f>
-        <v>#DIV/0!</v>
+        <v>805825</v>
       </c>
     </row>
     <row r="148" spans="3:16" x14ac:dyDescent="0.25">

--- a/CW1/Results1024Home.xlsx
+++ b/CW1/Results1024Home.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="10">
   <si>
     <t>Image Dimensions (px)</t>
   </si>
@@ -898,8 +898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="N147" sqref="N147"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="P148" sqref="P148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -984,6 +984,18 @@
       <c r="E3" s="2">
         <v>9</v>
       </c>
+      <c r="H3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="2">
+        <v>4</v>
+      </c>
+      <c r="J3" s="2">
+        <v>10764</v>
+      </c>
+      <c r="K3" s="2">
+        <v>9</v>
+      </c>
       <c r="N3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1010,6 +1022,18 @@
       <c r="E4" s="2">
         <v>9</v>
       </c>
+      <c r="H4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="2">
+        <v>4</v>
+      </c>
+      <c r="J4" s="2">
+        <v>11236</v>
+      </c>
+      <c r="K4" s="2">
+        <v>9</v>
+      </c>
       <c r="N4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1036,6 +1060,18 @@
       <c r="E5" s="2">
         <v>9</v>
       </c>
+      <c r="H5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="2">
+        <v>4</v>
+      </c>
+      <c r="J5" s="2">
+        <v>11276</v>
+      </c>
+      <c r="K5" s="2">
+        <v>9</v>
+      </c>
       <c r="N5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1062,6 +1098,18 @@
       <c r="E6" s="2">
         <v>9</v>
       </c>
+      <c r="H6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="2">
+        <v>4</v>
+      </c>
+      <c r="J6" s="2">
+        <v>11392</v>
+      </c>
+      <c r="K6" s="2">
+        <v>9</v>
+      </c>
       <c r="N6" s="2" t="s">
         <v>4</v>
       </c>
@@ -1088,6 +1136,18 @@
       <c r="E7" s="2">
         <v>9</v>
       </c>
+      <c r="H7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" s="2">
+        <v>4</v>
+      </c>
+      <c r="J7" s="2">
+        <v>12359</v>
+      </c>
+      <c r="K7" s="2">
+        <v>9</v>
+      </c>
       <c r="N7" s="2" t="s">
         <v>4</v>
       </c>
@@ -1114,6 +1174,18 @@
       <c r="E8" s="2">
         <v>9</v>
       </c>
+      <c r="H8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="2">
+        <v>4</v>
+      </c>
+      <c r="J8" s="2">
+        <v>13153</v>
+      </c>
+      <c r="K8" s="2">
+        <v>9</v>
+      </c>
       <c r="N8" s="2" t="s">
         <v>4</v>
       </c>
@@ -1140,6 +1212,18 @@
       <c r="E9" s="2">
         <v>9</v>
       </c>
+      <c r="H9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="2">
+        <v>4</v>
+      </c>
+      <c r="J9" s="2">
+        <v>13652</v>
+      </c>
+      <c r="K9" s="2">
+        <v>9</v>
+      </c>
       <c r="N9" s="2" t="s">
         <v>4</v>
       </c>
@@ -1166,6 +1250,18 @@
       <c r="E10" s="2">
         <v>9</v>
       </c>
+      <c r="H10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="2">
+        <v>4</v>
+      </c>
+      <c r="J10" s="2">
+        <v>14028</v>
+      </c>
+      <c r="K10" s="2">
+        <v>9</v>
+      </c>
       <c r="N10" s="2" t="s">
         <v>4</v>
       </c>
@@ -1192,6 +1288,18 @@
       <c r="E11" s="2">
         <v>9</v>
       </c>
+      <c r="H11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" s="2">
+        <v>4</v>
+      </c>
+      <c r="J11" s="2">
+        <v>14206</v>
+      </c>
+      <c r="K11" s="2">
+        <v>9</v>
+      </c>
       <c r="N11" s="2" t="s">
         <v>4</v>
       </c>
@@ -1216,6 +1324,18 @@
         <v>25925</v>
       </c>
       <c r="E12" s="2">
+        <v>9</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="2">
+        <v>4</v>
+      </c>
+      <c r="J12" s="2">
+        <v>14361</v>
+      </c>
+      <c r="K12" s="2">
         <v>9</v>
       </c>
       <c r="N12" s="2" t="s">
@@ -1242,9 +1362,9 @@
       <c r="I13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J13" s="2" t="e">
+      <c r="J13" s="2">
         <f>AVERAGE(J3:J12)</f>
-        <v>#DIV/0!</v>
+        <v>12642.7</v>
       </c>
       <c r="O13" s="3" t="s">
         <v>8</v>
@@ -1267,6 +1387,18 @@
       <c r="E15" s="2">
         <v>12</v>
       </c>
+      <c r="H15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="2">
+        <v>4</v>
+      </c>
+      <c r="J15" s="2">
+        <v>13744</v>
+      </c>
+      <c r="K15" s="2">
+        <v>12</v>
+      </c>
       <c r="N15" s="2" t="s">
         <v>4</v>
       </c>
@@ -1293,6 +1425,18 @@
       <c r="E16" s="2">
         <v>12</v>
       </c>
+      <c r="H16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I16" s="2">
+        <v>4</v>
+      </c>
+      <c r="J16" s="2">
+        <v>13613</v>
+      </c>
+      <c r="K16" s="2">
+        <v>12</v>
+      </c>
       <c r="N16" s="2" t="s">
         <v>4</v>
       </c>
@@ -1319,6 +1463,18 @@
       <c r="E17" s="2">
         <v>12</v>
       </c>
+      <c r="H17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I17" s="2">
+        <v>4</v>
+      </c>
+      <c r="J17" s="2">
+        <v>13570</v>
+      </c>
+      <c r="K17" s="2">
+        <v>12</v>
+      </c>
       <c r="N17" s="2" t="s">
         <v>4</v>
       </c>
@@ -1345,6 +1501,18 @@
       <c r="E18" s="2">
         <v>12</v>
       </c>
+      <c r="H18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" s="2">
+        <v>4</v>
+      </c>
+      <c r="J18" s="2">
+        <v>13539</v>
+      </c>
+      <c r="K18" s="2">
+        <v>12</v>
+      </c>
       <c r="N18" s="2" t="s">
         <v>4</v>
       </c>
@@ -1371,6 +1539,18 @@
       <c r="E19" s="2">
         <v>12</v>
       </c>
+      <c r="H19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I19" s="2">
+        <v>4</v>
+      </c>
+      <c r="J19" s="2">
+        <v>13551</v>
+      </c>
+      <c r="K19" s="2">
+        <v>12</v>
+      </c>
       <c r="N19" s="2" t="s">
         <v>4</v>
       </c>
@@ -1397,6 +1577,18 @@
       <c r="E20" s="2">
         <v>12</v>
       </c>
+      <c r="H20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" s="2">
+        <v>4</v>
+      </c>
+      <c r="J20" s="2">
+        <v>13625</v>
+      </c>
+      <c r="K20" s="2">
+        <v>12</v>
+      </c>
       <c r="N20" s="2" t="s">
         <v>4</v>
       </c>
@@ -1423,6 +1615,18 @@
       <c r="E21" s="2">
         <v>12</v>
       </c>
+      <c r="H21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="2">
+        <v>4</v>
+      </c>
+      <c r="J21" s="2">
+        <v>13623</v>
+      </c>
+      <c r="K21" s="2">
+        <v>12</v>
+      </c>
       <c r="N21" s="2" t="s">
         <v>4</v>
       </c>
@@ -1449,6 +1653,18 @@
       <c r="E22" s="2">
         <v>12</v>
       </c>
+      <c r="H22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" s="2">
+        <v>4</v>
+      </c>
+      <c r="J22" s="2">
+        <v>13620</v>
+      </c>
+      <c r="K22" s="2">
+        <v>12</v>
+      </c>
       <c r="N22" s="2" t="s">
         <v>4</v>
       </c>
@@ -1475,6 +1691,18 @@
       <c r="E23" s="2">
         <v>12</v>
       </c>
+      <c r="H23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I23" s="2">
+        <v>4</v>
+      </c>
+      <c r="J23" s="2">
+        <v>13599</v>
+      </c>
+      <c r="K23" s="2">
+        <v>12</v>
+      </c>
       <c r="N23" s="2" t="s">
         <v>4</v>
       </c>
@@ -1499,6 +1727,18 @@
         <v>26834</v>
       </c>
       <c r="E24" s="2">
+        <v>12</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I24" s="2">
+        <v>4</v>
+      </c>
+      <c r="J24" s="2">
+        <v>13531</v>
+      </c>
+      <c r="K24" s="2">
         <v>12</v>
       </c>
       <c r="N24" s="2" t="s">
@@ -1525,9 +1765,9 @@
       <c r="I25" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J25" s="2" t="e">
+      <c r="J25" s="2">
         <f>AVERAGE(J15:J24)</f>
-        <v>#DIV/0!</v>
+        <v>13601.5</v>
       </c>
       <c r="O25" s="3" t="s">
         <v>8</v>
@@ -1550,6 +1790,18 @@
       <c r="E27" s="2">
         <v>15</v>
       </c>
+      <c r="H27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I27" s="2">
+        <v>4</v>
+      </c>
+      <c r="J27" s="2">
+        <v>15968</v>
+      </c>
+      <c r="K27" s="2">
+        <v>15</v>
+      </c>
       <c r="N27" s="2" t="s">
         <v>4</v>
       </c>
@@ -1576,6 +1828,18 @@
       <c r="E28" s="2">
         <v>15</v>
       </c>
+      <c r="H28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I28" s="2">
+        <v>4</v>
+      </c>
+      <c r="J28" s="2">
+        <v>16004</v>
+      </c>
+      <c r="K28" s="2">
+        <v>15</v>
+      </c>
       <c r="N28" s="2" t="s">
         <v>4</v>
       </c>
@@ -1602,6 +1866,18 @@
       <c r="E29" s="2">
         <v>15</v>
       </c>
+      <c r="H29" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I29" s="2">
+        <v>4</v>
+      </c>
+      <c r="J29" s="2">
+        <v>15979</v>
+      </c>
+      <c r="K29" s="2">
+        <v>15</v>
+      </c>
       <c r="N29" s="2" t="s">
         <v>4</v>
       </c>
@@ -1628,6 +1904,18 @@
       <c r="E30" s="2">
         <v>15</v>
       </c>
+      <c r="H30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I30" s="2">
+        <v>4</v>
+      </c>
+      <c r="J30" s="2">
+        <v>15958</v>
+      </c>
+      <c r="K30" s="2">
+        <v>15</v>
+      </c>
       <c r="N30" s="2" t="s">
         <v>4</v>
       </c>
@@ -1654,6 +1942,18 @@
       <c r="E31" s="2">
         <v>15</v>
       </c>
+      <c r="H31" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I31" s="2">
+        <v>4</v>
+      </c>
+      <c r="J31" s="2">
+        <v>15862</v>
+      </c>
+      <c r="K31" s="2">
+        <v>15</v>
+      </c>
       <c r="N31" s="2" t="s">
         <v>4</v>
       </c>
@@ -1680,6 +1980,18 @@
       <c r="E32" s="2">
         <v>15</v>
       </c>
+      <c r="H32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I32" s="2">
+        <v>4</v>
+      </c>
+      <c r="J32" s="2">
+        <v>15927</v>
+      </c>
+      <c r="K32" s="2">
+        <v>15</v>
+      </c>
       <c r="N32" s="2" t="s">
         <v>4</v>
       </c>
@@ -1706,6 +2018,18 @@
       <c r="E33" s="2">
         <v>15</v>
       </c>
+      <c r="H33" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I33" s="2">
+        <v>4</v>
+      </c>
+      <c r="J33" s="2">
+        <v>15923</v>
+      </c>
+      <c r="K33" s="2">
+        <v>15</v>
+      </c>
       <c r="N33" s="2" t="s">
         <v>4</v>
       </c>
@@ -1732,6 +2056,18 @@
       <c r="E34" s="2">
         <v>15</v>
       </c>
+      <c r="H34" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I34" s="2">
+        <v>4</v>
+      </c>
+      <c r="J34" s="2">
+        <v>15909</v>
+      </c>
+      <c r="K34" s="2">
+        <v>15</v>
+      </c>
       <c r="N34" s="2" t="s">
         <v>4</v>
       </c>
@@ -1758,6 +2094,18 @@
       <c r="E35" s="2">
         <v>15</v>
       </c>
+      <c r="H35" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I35" s="2">
+        <v>4</v>
+      </c>
+      <c r="J35" s="2">
+        <v>15837</v>
+      </c>
+      <c r="K35" s="2">
+        <v>15</v>
+      </c>
       <c r="N35" s="2" t="s">
         <v>4</v>
       </c>
@@ -1782,6 +2130,18 @@
         <v>40239</v>
       </c>
       <c r="E36" s="2">
+        <v>15</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I36" s="2">
+        <v>4</v>
+      </c>
+      <c r="J36" s="2">
+        <v>15793</v>
+      </c>
+      <c r="K36" s="2">
         <v>15</v>
       </c>
       <c r="N36" s="2" t="s">
@@ -1808,9 +2168,9 @@
       <c r="I37" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J37" s="2" t="e">
+      <c r="J37" s="2">
         <f>AVERAGE(J27:J36)</f>
-        <v>#DIV/0!</v>
+        <v>15916</v>
       </c>
       <c r="O37" s="3" t="s">
         <v>8</v>
@@ -1844,6 +2204,18 @@
       <c r="E40" s="2">
         <v>9</v>
       </c>
+      <c r="H40" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I40" s="2">
+        <v>16</v>
+      </c>
+      <c r="J40" s="2">
+        <v>57360</v>
+      </c>
+      <c r="K40" s="2">
+        <v>9</v>
+      </c>
       <c r="N40" s="2" t="s">
         <v>4</v>
       </c>
@@ -1870,6 +2242,18 @@
       <c r="E41" s="2">
         <v>9</v>
       </c>
+      <c r="H41" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I41" s="2">
+        <v>16</v>
+      </c>
+      <c r="J41" s="2">
+        <v>57154</v>
+      </c>
+      <c r="K41" s="2">
+        <v>9</v>
+      </c>
       <c r="N41" s="2" t="s">
         <v>4</v>
       </c>
@@ -1896,6 +2280,18 @@
       <c r="E42" s="2">
         <v>9</v>
       </c>
+      <c r="H42" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I42" s="2">
+        <v>16</v>
+      </c>
+      <c r="J42" s="2">
+        <v>57139</v>
+      </c>
+      <c r="K42" s="2">
+        <v>9</v>
+      </c>
       <c r="N42" s="2" t="s">
         <v>4</v>
       </c>
@@ -1922,6 +2318,18 @@
       <c r="E43" s="2">
         <v>9</v>
       </c>
+      <c r="H43" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I43" s="2">
+        <v>16</v>
+      </c>
+      <c r="J43" s="2">
+        <v>57051</v>
+      </c>
+      <c r="K43" s="2">
+        <v>9</v>
+      </c>
       <c r="N43" s="2" t="s">
         <v>4</v>
       </c>
@@ -1948,6 +2356,18 @@
       <c r="E44" s="2">
         <v>9</v>
       </c>
+      <c r="H44" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I44" s="2">
+        <v>16</v>
+      </c>
+      <c r="J44" s="2">
+        <v>56815</v>
+      </c>
+      <c r="K44" s="2">
+        <v>9</v>
+      </c>
       <c r="N44" s="2" t="s">
         <v>4</v>
       </c>
@@ -1974,6 +2394,18 @@
       <c r="E45" s="2">
         <v>9</v>
       </c>
+      <c r="H45" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I45" s="2">
+        <v>16</v>
+      </c>
+      <c r="J45" s="2">
+        <v>56923</v>
+      </c>
+      <c r="K45" s="2">
+        <v>9</v>
+      </c>
       <c r="N45" s="2" t="s">
         <v>4</v>
       </c>
@@ -2000,6 +2432,18 @@
       <c r="E46" s="2">
         <v>9</v>
       </c>
+      <c r="H46" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I46" s="2">
+        <v>16</v>
+      </c>
+      <c r="J46" s="2">
+        <v>56763</v>
+      </c>
+      <c r="K46" s="2">
+        <v>9</v>
+      </c>
       <c r="N46" s="2" t="s">
         <v>4</v>
       </c>
@@ -2026,6 +2470,18 @@
       <c r="E47" s="2">
         <v>9</v>
       </c>
+      <c r="H47" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I47" s="2">
+        <v>16</v>
+      </c>
+      <c r="J47" s="2">
+        <v>56734</v>
+      </c>
+      <c r="K47" s="2">
+        <v>9</v>
+      </c>
       <c r="N47" s="2" t="s">
         <v>4</v>
       </c>
@@ -2052,6 +2508,18 @@
       <c r="E48" s="2">
         <v>9</v>
       </c>
+      <c r="H48" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I48" s="2">
+        <v>16</v>
+      </c>
+      <c r="J48" s="2">
+        <v>56632</v>
+      </c>
+      <c r="K48" s="2">
+        <v>9</v>
+      </c>
       <c r="N48" s="2" t="s">
         <v>4</v>
       </c>
@@ -2076,6 +2544,18 @@
         <v>104079</v>
       </c>
       <c r="E49" s="2">
+        <v>9</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I49" s="2">
+        <v>16</v>
+      </c>
+      <c r="J49" s="2">
+        <v>56695</v>
+      </c>
+      <c r="K49" s="2">
         <v>9</v>
       </c>
       <c r="N49" s="2" t="s">
@@ -2102,9 +2582,9 @@
       <c r="I50" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J50" s="2" t="e">
+      <c r="J50" s="2">
         <f>AVERAGE(J40:J49)</f>
-        <v>#DIV/0!</v>
+        <v>56926.6</v>
       </c>
       <c r="O50" s="3" t="s">
         <v>8</v>
@@ -2127,6 +2607,18 @@
       <c r="E52" s="2">
         <v>12</v>
       </c>
+      <c r="H52" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I52" s="2">
+        <v>16</v>
+      </c>
+      <c r="J52" s="2">
+        <v>53403</v>
+      </c>
+      <c r="K52" s="2">
+        <v>12</v>
+      </c>
       <c r="N52" s="2" t="s">
         <v>4</v>
       </c>
@@ -2153,6 +2645,18 @@
       <c r="E53" s="2">
         <v>12</v>
       </c>
+      <c r="H53" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I53" s="2">
+        <v>16</v>
+      </c>
+      <c r="J53" s="2">
+        <v>53208</v>
+      </c>
+      <c r="K53" s="2">
+        <v>12</v>
+      </c>
       <c r="N53" s="2" t="s">
         <v>4</v>
       </c>
@@ -2179,6 +2683,18 @@
       <c r="E54" s="2">
         <v>12</v>
       </c>
+      <c r="H54" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I54" s="2">
+        <v>16</v>
+      </c>
+      <c r="J54" s="2">
+        <v>52932</v>
+      </c>
+      <c r="K54" s="2">
+        <v>12</v>
+      </c>
       <c r="N54" s="2" t="s">
         <v>4</v>
       </c>
@@ -2205,6 +2721,18 @@
       <c r="E55" s="2">
         <v>12</v>
       </c>
+      <c r="H55" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I55" s="2">
+        <v>16</v>
+      </c>
+      <c r="J55" s="2">
+        <v>53371</v>
+      </c>
+      <c r="K55" s="2">
+        <v>12</v>
+      </c>
       <c r="N55" s="2" t="s">
         <v>4</v>
       </c>
@@ -2231,6 +2759,18 @@
       <c r="E56" s="2">
         <v>12</v>
       </c>
+      <c r="H56" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I56" s="2">
+        <v>16</v>
+      </c>
+      <c r="J56" s="2">
+        <v>52910</v>
+      </c>
+      <c r="K56" s="2">
+        <v>12</v>
+      </c>
       <c r="N56" s="2" t="s">
         <v>4</v>
       </c>
@@ -2257,6 +2797,18 @@
       <c r="E57" s="2">
         <v>12</v>
       </c>
+      <c r="H57" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I57" s="2">
+        <v>16</v>
+      </c>
+      <c r="J57" s="2">
+        <v>52904</v>
+      </c>
+      <c r="K57" s="2">
+        <v>12</v>
+      </c>
       <c r="N57" s="2" t="s">
         <v>4</v>
       </c>
@@ -2283,6 +2835,18 @@
       <c r="E58" s="2">
         <v>12</v>
       </c>
+      <c r="H58" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I58" s="2">
+        <v>16</v>
+      </c>
+      <c r="J58" s="2">
+        <v>53029</v>
+      </c>
+      <c r="K58" s="2">
+        <v>12</v>
+      </c>
       <c r="N58" s="2" t="s">
         <v>4</v>
       </c>
@@ -2309,6 +2873,18 @@
       <c r="E59" s="2">
         <v>12</v>
       </c>
+      <c r="H59" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I59" s="2">
+        <v>16</v>
+      </c>
+      <c r="J59" s="2">
+        <v>53054</v>
+      </c>
+      <c r="K59" s="2">
+        <v>12</v>
+      </c>
       <c r="N59" s="2" t="s">
         <v>4</v>
       </c>
@@ -2335,6 +2911,18 @@
       <c r="E60" s="2">
         <v>12</v>
       </c>
+      <c r="H60" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I60" s="2">
+        <v>16</v>
+      </c>
+      <c r="J60" s="2">
+        <v>52824</v>
+      </c>
+      <c r="K60" s="2">
+        <v>12</v>
+      </c>
       <c r="N60" s="2" t="s">
         <v>4</v>
       </c>
@@ -2359,6 +2947,18 @@
         <v>105325</v>
       </c>
       <c r="E61" s="2">
+        <v>12</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I61" s="2">
+        <v>16</v>
+      </c>
+      <c r="J61" s="2">
+        <v>53122</v>
+      </c>
+      <c r="K61" s="2">
         <v>12</v>
       </c>
       <c r="N61" s="2" t="s">
@@ -2385,9 +2985,9 @@
       <c r="I62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J62" s="2" t="e">
+      <c r="J62" s="2">
         <f>AVERAGE(J52:J61)</f>
-        <v>#DIV/0!</v>
+        <v>53075.7</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>8</v>
@@ -2410,6 +3010,18 @@
       <c r="E64" s="2">
         <v>15</v>
       </c>
+      <c r="H64" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I64" s="2">
+        <v>16</v>
+      </c>
+      <c r="J64" s="2">
+        <v>62657</v>
+      </c>
+      <c r="K64" s="2">
+        <v>15</v>
+      </c>
       <c r="N64" s="2" t="s">
         <v>4</v>
       </c>
@@ -2436,6 +3048,18 @@
       <c r="E65" s="2">
         <v>15</v>
       </c>
+      <c r="H65" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I65" s="2">
+        <v>16</v>
+      </c>
+      <c r="J65" s="2">
+        <v>62540</v>
+      </c>
+      <c r="K65" s="2">
+        <v>15</v>
+      </c>
       <c r="N65" s="2" t="s">
         <v>4</v>
       </c>
@@ -2462,6 +3086,18 @@
       <c r="E66" s="2">
         <v>15</v>
       </c>
+      <c r="H66" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I66" s="2">
+        <v>16</v>
+      </c>
+      <c r="J66" s="2">
+        <v>62686</v>
+      </c>
+      <c r="K66" s="2">
+        <v>15</v>
+      </c>
       <c r="N66" s="2" t="s">
         <v>4</v>
       </c>
@@ -2488,6 +3124,18 @@
       <c r="E67" s="2">
         <v>15</v>
       </c>
+      <c r="H67" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I67" s="2">
+        <v>16</v>
+      </c>
+      <c r="J67" s="2">
+        <v>63028</v>
+      </c>
+      <c r="K67" s="2">
+        <v>15</v>
+      </c>
       <c r="N67" s="2" t="s">
         <v>4</v>
       </c>
@@ -2514,6 +3162,18 @@
       <c r="E68" s="2">
         <v>15</v>
       </c>
+      <c r="H68" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I68" s="2">
+        <v>16</v>
+      </c>
+      <c r="J68" s="2">
+        <v>62271</v>
+      </c>
+      <c r="K68" s="2">
+        <v>15</v>
+      </c>
       <c r="N68" s="2" t="s">
         <v>4</v>
       </c>
@@ -2540,6 +3200,18 @@
       <c r="E69" s="2">
         <v>15</v>
       </c>
+      <c r="H69" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I69" s="2">
+        <v>16</v>
+      </c>
+      <c r="J69" s="2">
+        <v>62555</v>
+      </c>
+      <c r="K69" s="2">
+        <v>15</v>
+      </c>
       <c r="N69" s="2" t="s">
         <v>4</v>
       </c>
@@ -2566,6 +3238,18 @@
       <c r="E70" s="2">
         <v>15</v>
       </c>
+      <c r="H70" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I70" s="2">
+        <v>16</v>
+      </c>
+      <c r="J70" s="2">
+        <v>62381</v>
+      </c>
+      <c r="K70" s="2">
+        <v>15</v>
+      </c>
       <c r="N70" s="2" t="s">
         <v>4</v>
       </c>
@@ -2592,6 +3276,18 @@
       <c r="E71" s="2">
         <v>15</v>
       </c>
+      <c r="H71" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I71" s="2">
+        <v>16</v>
+      </c>
+      <c r="J71" s="2">
+        <v>62474</v>
+      </c>
+      <c r="K71" s="2">
+        <v>15</v>
+      </c>
       <c r="N71" s="2" t="s">
         <v>4</v>
       </c>
@@ -2618,6 +3314,18 @@
       <c r="E72" s="2">
         <v>15</v>
       </c>
+      <c r="H72" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I72" s="2">
+        <v>16</v>
+      </c>
+      <c r="J72" s="2">
+        <v>62378</v>
+      </c>
+      <c r="K72" s="2">
+        <v>15</v>
+      </c>
       <c r="N72" s="2" t="s">
         <v>4</v>
       </c>
@@ -2642,6 +3350,18 @@
         <v>137110</v>
       </c>
       <c r="E73" s="2">
+        <v>15</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I73" s="2">
+        <v>16</v>
+      </c>
+      <c r="J73" s="2">
+        <v>62591</v>
+      </c>
+      <c r="K73" s="2">
         <v>15</v>
       </c>
       <c r="N73" s="2" t="s">
@@ -2668,9 +3388,9 @@
       <c r="I74" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J74" s="2" t="e">
+      <c r="J74" s="2">
         <f>AVERAGE(J64:J73)</f>
-        <v>#DIV/0!</v>
+        <v>62556.1</v>
       </c>
       <c r="O74" s="3" t="s">
         <v>8</v>
@@ -2704,6 +3424,18 @@
       <c r="E77" s="2">
         <v>9</v>
       </c>
+      <c r="H77" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I77" s="2">
+        <v>64</v>
+      </c>
+      <c r="J77" s="2">
+        <v>228311</v>
+      </c>
+      <c r="K77" s="2">
+        <v>9</v>
+      </c>
       <c r="N77" s="2" t="s">
         <v>4</v>
       </c>
@@ -2730,6 +3462,18 @@
       <c r="E78" s="2">
         <v>9</v>
       </c>
+      <c r="H78" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I78" s="2">
+        <v>64</v>
+      </c>
+      <c r="J78" s="2">
+        <v>227049</v>
+      </c>
+      <c r="K78" s="2">
+        <v>9</v>
+      </c>
       <c r="N78" s="2" t="s">
         <v>4</v>
       </c>
@@ -2756,6 +3500,18 @@
       <c r="E79" s="2">
         <v>9</v>
       </c>
+      <c r="H79" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I79" s="2">
+        <v>64</v>
+      </c>
+      <c r="J79" s="2">
+        <v>228151</v>
+      </c>
+      <c r="K79" s="2">
+        <v>9</v>
+      </c>
       <c r="N79" s="2" t="s">
         <v>4</v>
       </c>
@@ -2782,6 +3538,18 @@
       <c r="E80" s="2">
         <v>9</v>
       </c>
+      <c r="H80" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I80" s="2">
+        <v>64</v>
+      </c>
+      <c r="J80" s="2">
+        <v>228459</v>
+      </c>
+      <c r="K80" s="2">
+        <v>9</v>
+      </c>
       <c r="N80" s="2" t="s">
         <v>4</v>
       </c>
@@ -2808,6 +3576,18 @@
       <c r="E81" s="2">
         <v>9</v>
       </c>
+      <c r="H81" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I81" s="2">
+        <v>64</v>
+      </c>
+      <c r="J81" s="2">
+        <v>228851</v>
+      </c>
+      <c r="K81" s="2">
+        <v>9</v>
+      </c>
       <c r="N81" s="2" t="s">
         <v>4</v>
       </c>
@@ -2834,6 +3614,18 @@
       <c r="E82" s="2">
         <v>9</v>
       </c>
+      <c r="H82" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I82" s="2">
+        <v>64</v>
+      </c>
+      <c r="J82" s="2">
+        <v>229535</v>
+      </c>
+      <c r="K82" s="2">
+        <v>9</v>
+      </c>
       <c r="N82" s="2" t="s">
         <v>4</v>
       </c>
@@ -2860,6 +3652,18 @@
       <c r="E83" s="2">
         <v>9</v>
       </c>
+      <c r="H83" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I83" s="2">
+        <v>64</v>
+      </c>
+      <c r="J83" s="2">
+        <v>229739</v>
+      </c>
+      <c r="K83" s="2">
+        <v>9</v>
+      </c>
       <c r="N83" s="2" t="s">
         <v>4</v>
       </c>
@@ -2886,6 +3690,18 @@
       <c r="E84" s="2">
         <v>9</v>
       </c>
+      <c r="H84" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I84" s="2">
+        <v>64</v>
+      </c>
+      <c r="J84" s="2">
+        <v>230405</v>
+      </c>
+      <c r="K84" s="2">
+        <v>9</v>
+      </c>
       <c r="N84" s="2" t="s">
         <v>4</v>
       </c>
@@ -2912,6 +3728,18 @@
       <c r="E85" s="2">
         <v>9</v>
       </c>
+      <c r="H85" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I85" s="2">
+        <v>64</v>
+      </c>
+      <c r="J85" s="2">
+        <v>231039</v>
+      </c>
+      <c r="K85" s="2">
+        <v>9</v>
+      </c>
       <c r="N85" s="2" t="s">
         <v>4</v>
       </c>
@@ -2936,6 +3764,18 @@
         <v>416315</v>
       </c>
       <c r="E86" s="2">
+        <v>9</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I86" s="2">
+        <v>64</v>
+      </c>
+      <c r="J86" s="2">
+        <v>231478</v>
+      </c>
+      <c r="K86" s="2">
         <v>9</v>
       </c>
       <c r="N86" s="2" t="s">
@@ -2962,9 +3802,9 @@
       <c r="I87" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J87" s="2" t="e">
+      <c r="J87" s="2">
         <f>AVERAGE(J77:J86)</f>
-        <v>#DIV/0!</v>
+        <v>229301.7</v>
       </c>
       <c r="O87" s="3" t="s">
         <v>8</v>
@@ -2987,6 +3827,18 @@
       <c r="E89" s="2">
         <v>12</v>
       </c>
+      <c r="H89" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I89" s="2">
+        <v>64</v>
+      </c>
+      <c r="J89" s="2">
+        <v>217466</v>
+      </c>
+      <c r="K89" s="2">
+        <v>12</v>
+      </c>
       <c r="N89" s="2" t="s">
         <v>4</v>
       </c>
@@ -3013,6 +3865,18 @@
       <c r="E90" s="2">
         <v>12</v>
       </c>
+      <c r="H90" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I90" s="2">
+        <v>64</v>
+      </c>
+      <c r="J90" s="2">
+        <v>216758</v>
+      </c>
+      <c r="K90" s="2">
+        <v>12</v>
+      </c>
       <c r="N90" s="2" t="s">
         <v>4</v>
       </c>
@@ -3039,6 +3903,18 @@
       <c r="E91" s="2">
         <v>12</v>
       </c>
+      <c r="H91" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I91" s="2">
+        <v>64</v>
+      </c>
+      <c r="J91" s="2">
+        <v>217511</v>
+      </c>
+      <c r="K91" s="2">
+        <v>12</v>
+      </c>
       <c r="N91" s="2" t="s">
         <v>4</v>
       </c>
@@ -3065,6 +3941,18 @@
       <c r="E92" s="2">
         <v>12</v>
       </c>
+      <c r="H92" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I92" s="2">
+        <v>64</v>
+      </c>
+      <c r="J92" s="2">
+        <v>217864</v>
+      </c>
+      <c r="K92" s="2">
+        <v>12</v>
+      </c>
       <c r="N92" s="2" t="s">
         <v>4</v>
       </c>
@@ -3091,6 +3979,18 @@
       <c r="E93" s="2">
         <v>12</v>
       </c>
+      <c r="H93" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I93" s="2">
+        <v>64</v>
+      </c>
+      <c r="J93" s="2">
+        <v>217448</v>
+      </c>
+      <c r="K93" s="2">
+        <v>12</v>
+      </c>
       <c r="N93" s="2" t="s">
         <v>4</v>
       </c>
@@ -3117,6 +4017,18 @@
       <c r="E94" s="2">
         <v>12</v>
       </c>
+      <c r="H94" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I94" s="2">
+        <v>64</v>
+      </c>
+      <c r="J94" s="2">
+        <v>217933</v>
+      </c>
+      <c r="K94" s="2">
+        <v>12</v>
+      </c>
       <c r="N94" s="2" t="s">
         <v>4</v>
       </c>
@@ -3143,6 +4055,18 @@
       <c r="E95" s="2">
         <v>12</v>
       </c>
+      <c r="H95" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I95" s="2">
+        <v>64</v>
+      </c>
+      <c r="J95" s="2">
+        <v>218839</v>
+      </c>
+      <c r="K95" s="2">
+        <v>12</v>
+      </c>
       <c r="N95" s="2" t="s">
         <v>4</v>
       </c>
@@ -3169,6 +4093,18 @@
       <c r="E96" s="2">
         <v>12</v>
       </c>
+      <c r="H96" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I96" s="2">
+        <v>64</v>
+      </c>
+      <c r="J96" s="2">
+        <v>219725</v>
+      </c>
+      <c r="K96" s="2">
+        <v>12</v>
+      </c>
       <c r="N96" s="2" t="s">
         <v>4</v>
       </c>
@@ -3195,6 +4131,18 @@
       <c r="E97" s="2">
         <v>12</v>
       </c>
+      <c r="H97" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I97" s="2">
+        <v>64</v>
+      </c>
+      <c r="J97" s="2">
+        <v>226301</v>
+      </c>
+      <c r="K97" s="2">
+        <v>12</v>
+      </c>
       <c r="N97" s="2" t="s">
         <v>4</v>
       </c>
@@ -3219,6 +4167,18 @@
         <v>427498</v>
       </c>
       <c r="E98" s="2">
+        <v>12</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I98" s="2">
+        <v>64</v>
+      </c>
+      <c r="J98" s="2">
+        <v>221323</v>
+      </c>
+      <c r="K98" s="2">
         <v>12</v>
       </c>
       <c r="N98" s="2" t="s">
@@ -3245,9 +4205,9 @@
       <c r="I99" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J99" s="2" t="e">
+      <c r="J99" s="2">
         <f>AVERAGE(J89:J98)</f>
-        <v>#DIV/0!</v>
+        <v>219116.79999999999</v>
       </c>
       <c r="O99" s="3" t="s">
         <v>8</v>
@@ -3270,6 +4230,18 @@
       <c r="E101" s="2">
         <v>15</v>
       </c>
+      <c r="H101" t="s">
+        <v>4</v>
+      </c>
+      <c r="I101">
+        <v>64</v>
+      </c>
+      <c r="J101">
+        <v>255963</v>
+      </c>
+      <c r="K101">
+        <v>15</v>
+      </c>
       <c r="N101" s="2" t="s">
         <v>4</v>
       </c>
@@ -3296,6 +4268,18 @@
       <c r="E102" s="2">
         <v>15</v>
       </c>
+      <c r="H102" t="s">
+        <v>4</v>
+      </c>
+      <c r="I102">
+        <v>64</v>
+      </c>
+      <c r="J102">
+        <v>258103</v>
+      </c>
+      <c r="K102">
+        <v>15</v>
+      </c>
       <c r="N102" s="2" t="s">
         <v>4</v>
       </c>
@@ -3322,6 +4306,18 @@
       <c r="E103" s="2">
         <v>15</v>
       </c>
+      <c r="H103" t="s">
+        <v>4</v>
+      </c>
+      <c r="I103">
+        <v>64</v>
+      </c>
+      <c r="J103">
+        <v>257381</v>
+      </c>
+      <c r="K103">
+        <v>15</v>
+      </c>
       <c r="N103" s="2" t="s">
         <v>4</v>
       </c>
@@ -3348,6 +4344,18 @@
       <c r="E104" s="2">
         <v>15</v>
       </c>
+      <c r="H104" t="s">
+        <v>4</v>
+      </c>
+      <c r="I104">
+        <v>64</v>
+      </c>
+      <c r="J104">
+        <v>258237</v>
+      </c>
+      <c r="K104">
+        <v>15</v>
+      </c>
       <c r="N104" s="2" t="s">
         <v>4</v>
       </c>
@@ -3374,6 +4382,18 @@
       <c r="E105" s="2">
         <v>15</v>
       </c>
+      <c r="H105" t="s">
+        <v>4</v>
+      </c>
+      <c r="I105">
+        <v>64</v>
+      </c>
+      <c r="J105">
+        <v>258385</v>
+      </c>
+      <c r="K105">
+        <v>15</v>
+      </c>
       <c r="N105" s="2" t="s">
         <v>4</v>
       </c>
@@ -3400,6 +4420,18 @@
       <c r="E106" s="2">
         <v>15</v>
       </c>
+      <c r="H106" t="s">
+        <v>4</v>
+      </c>
+      <c r="I106">
+        <v>64</v>
+      </c>
+      <c r="J106">
+        <v>258058</v>
+      </c>
+      <c r="K106">
+        <v>15</v>
+      </c>
       <c r="N106" s="2" t="s">
         <v>4</v>
       </c>
@@ -3426,6 +4458,18 @@
       <c r="E107" s="2">
         <v>15</v>
       </c>
+      <c r="H107" t="s">
+        <v>4</v>
+      </c>
+      <c r="I107">
+        <v>64</v>
+      </c>
+      <c r="J107">
+        <v>258465</v>
+      </c>
+      <c r="K107">
+        <v>15</v>
+      </c>
       <c r="N107" s="2" t="s">
         <v>4</v>
       </c>
@@ -3452,6 +4496,18 @@
       <c r="E108" s="2">
         <v>15</v>
       </c>
+      <c r="H108" t="s">
+        <v>4</v>
+      </c>
+      <c r="I108">
+        <v>64</v>
+      </c>
+      <c r="J108">
+        <v>258613</v>
+      </c>
+      <c r="K108">
+        <v>15</v>
+      </c>
       <c r="N108" s="2" t="s">
         <v>4</v>
       </c>
@@ -3478,6 +4534,18 @@
       <c r="E109" s="2">
         <v>15</v>
       </c>
+      <c r="H109" t="s">
+        <v>4</v>
+      </c>
+      <c r="I109">
+        <v>64</v>
+      </c>
+      <c r="J109">
+        <v>259643</v>
+      </c>
+      <c r="K109">
+        <v>15</v>
+      </c>
       <c r="N109" s="2" t="s">
         <v>4</v>
       </c>
@@ -3502,6 +4570,18 @@
         <v>567361</v>
       </c>
       <c r="E110" s="2">
+        <v>15</v>
+      </c>
+      <c r="H110" t="s">
+        <v>4</v>
+      </c>
+      <c r="I110">
+        <v>64</v>
+      </c>
+      <c r="J110">
+        <v>259227</v>
+      </c>
+      <c r="K110">
         <v>15</v>
       </c>
       <c r="N110" s="2" t="s">
@@ -3528,9 +4608,9 @@
       <c r="I111" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J111" s="2" t="e">
+      <c r="J111" s="2">
         <f>AVERAGE(J101:J110)</f>
-        <v>#DIV/0!</v>
+        <v>258207.5</v>
       </c>
       <c r="O111" s="3" t="s">
         <v>8</v>
@@ -3564,6 +4644,18 @@
       <c r="E114" s="2">
         <v>9</v>
       </c>
+      <c r="H114" t="s">
+        <v>4</v>
+      </c>
+      <c r="I114">
+        <v>256</v>
+      </c>
+      <c r="J114">
+        <v>947912</v>
+      </c>
+      <c r="K114">
+        <v>9</v>
+      </c>
       <c r="N114" s="2" t="s">
         <v>4</v>
       </c>
@@ -3590,6 +4682,18 @@
       <c r="E115" s="2">
         <v>9</v>
       </c>
+      <c r="H115" t="s">
+        <v>4</v>
+      </c>
+      <c r="I115">
+        <v>256</v>
+      </c>
+      <c r="J115">
+        <v>947900</v>
+      </c>
+      <c r="K115">
+        <v>9</v>
+      </c>
       <c r="N115" s="2" t="s">
         <v>4</v>
       </c>
@@ -3616,6 +4720,18 @@
       <c r="E116" s="2">
         <v>9</v>
       </c>
+      <c r="H116" t="s">
+        <v>4</v>
+      </c>
+      <c r="I116">
+        <v>256</v>
+      </c>
+      <c r="J116">
+        <v>952948</v>
+      </c>
+      <c r="K116">
+        <v>9</v>
+      </c>
       <c r="N116" s="2" t="s">
         <v>4</v>
       </c>
@@ -3642,6 +4758,18 @@
       <c r="E117" s="2">
         <v>9</v>
       </c>
+      <c r="H117" t="s">
+        <v>4</v>
+      </c>
+      <c r="I117">
+        <v>256</v>
+      </c>
+      <c r="J117">
+        <v>953059</v>
+      </c>
+      <c r="K117">
+        <v>9</v>
+      </c>
       <c r="N117" s="2" t="s">
         <v>4</v>
       </c>
@@ -3668,6 +4796,18 @@
       <c r="E118" s="2">
         <v>9</v>
       </c>
+      <c r="H118" t="s">
+        <v>4</v>
+      </c>
+      <c r="I118">
+        <v>256</v>
+      </c>
+      <c r="J118">
+        <v>955481</v>
+      </c>
+      <c r="K118">
+        <v>9</v>
+      </c>
       <c r="N118" s="2" t="s">
         <v>4</v>
       </c>
@@ -3682,6 +4822,18 @@
       </c>
     </row>
     <row r="119" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="H119" t="s">
+        <v>4</v>
+      </c>
+      <c r="I119">
+        <v>256</v>
+      </c>
+      <c r="J119">
+        <v>955864</v>
+      </c>
+      <c r="K119">
+        <v>9</v>
+      </c>
       <c r="N119" s="2" t="s">
         <v>4</v>
       </c>
@@ -3696,6 +4848,18 @@
       </c>
     </row>
     <row r="120" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="H120" t="s">
+        <v>4</v>
+      </c>
+      <c r="I120">
+        <v>256</v>
+      </c>
+      <c r="J120">
+        <v>958174</v>
+      </c>
+      <c r="K120">
+        <v>9</v>
+      </c>
       <c r="N120" s="2" t="s">
         <v>4</v>
       </c>
@@ -3710,6 +4874,18 @@
       </c>
     </row>
     <row r="121" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="H121" t="s">
+        <v>4</v>
+      </c>
+      <c r="I121">
+        <v>256</v>
+      </c>
+      <c r="J121">
+        <v>961461</v>
+      </c>
+      <c r="K121">
+        <v>9</v>
+      </c>
       <c r="N121" s="2" t="s">
         <v>4</v>
       </c>
@@ -3720,6 +4896,34 @@
         <v>850717</v>
       </c>
       <c r="Q121" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="H122" t="s">
+        <v>4</v>
+      </c>
+      <c r="I122">
+        <v>256</v>
+      </c>
+      <c r="J122">
+        <v>959351</v>
+      </c>
+      <c r="K122">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="H123" t="s">
+        <v>4</v>
+      </c>
+      <c r="I123">
+        <v>256</v>
+      </c>
+      <c r="J123">
+        <v>959484</v>
+      </c>
+      <c r="K123">
         <v>9</v>
       </c>
     </row>
@@ -3734,9 +4938,9 @@
       <c r="I124" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J124" s="2" t="e">
+      <c r="J124" s="2">
         <f>AVERAGE(J114:J123)</f>
-        <v>#DIV/0!</v>
+        <v>955163.4</v>
       </c>
       <c r="O124" s="3" t="s">
         <v>8</v>
@@ -3746,7 +4950,157 @@
         <v>874755.75</v>
       </c>
     </row>
-    <row r="135" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="H126" t="s">
+        <v>4</v>
+      </c>
+      <c r="I126">
+        <v>256</v>
+      </c>
+      <c r="J126">
+        <v>894660</v>
+      </c>
+      <c r="K126">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="127" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="H127" t="s">
+        <v>4</v>
+      </c>
+      <c r="I127">
+        <v>256</v>
+      </c>
+      <c r="J127">
+        <v>895131</v>
+      </c>
+      <c r="K127">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="128" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="H128" t="s">
+        <v>4</v>
+      </c>
+      <c r="I128">
+        <v>256</v>
+      </c>
+      <c r="J128">
+        <v>897124</v>
+      </c>
+      <c r="K128">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="129" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="H129" t="s">
+        <v>4</v>
+      </c>
+      <c r="I129">
+        <v>256</v>
+      </c>
+      <c r="J129">
+        <v>903388</v>
+      </c>
+      <c r="K129">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="130" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="H130" t="s">
+        <v>4</v>
+      </c>
+      <c r="I130">
+        <v>256</v>
+      </c>
+      <c r="J130">
+        <v>896624</v>
+      </c>
+      <c r="K130">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="131" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="H131" t="s">
+        <v>4</v>
+      </c>
+      <c r="I131">
+        <v>256</v>
+      </c>
+      <c r="J131">
+        <v>892132</v>
+      </c>
+      <c r="K131">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="132" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="H132" t="s">
+        <v>4</v>
+      </c>
+      <c r="I132">
+        <v>256</v>
+      </c>
+      <c r="J132">
+        <v>891879</v>
+      </c>
+      <c r="K132">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="133" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="H133" t="s">
+        <v>4</v>
+      </c>
+      <c r="I133">
+        <v>256</v>
+      </c>
+      <c r="J133">
+        <v>889375</v>
+      </c>
+      <c r="K133">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="134" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="H134" t="s">
+        <v>4</v>
+      </c>
+      <c r="I134">
+        <v>256</v>
+      </c>
+      <c r="J134">
+        <v>885324</v>
+      </c>
+      <c r="K134">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="135" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B135" t="s">
+        <v>4</v>
+      </c>
+      <c r="C135">
+        <v>256</v>
+      </c>
+      <c r="D135">
+        <v>1652563</v>
+      </c>
+      <c r="E135">
+        <v>12</v>
+      </c>
+      <c r="H135" t="s">
+        <v>4</v>
+      </c>
+      <c r="I135">
+        <v>256</v>
+      </c>
+      <c r="J135">
+        <v>880736</v>
+      </c>
+      <c r="K135">
+        <v>12</v>
+      </c>
       <c r="N135" s="2" t="s">
         <v>4</v>
       </c>
@@ -3760,20 +5114,20 @@
         <v>12</v>
       </c>
     </row>
-    <row r="136" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C136" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D136" s="2" t="e">
+      <c r="D136" s="2">
         <f>AVERAGE(D126:D135)</f>
-        <v>#DIV/0!</v>
+        <v>1652563</v>
       </c>
       <c r="I136" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J136" s="2" t="e">
+      <c r="J136" s="2">
         <f>AVERAGE(J126:J135)</f>
-        <v>#DIV/0!</v>
+        <v>892637.3</v>
       </c>
       <c r="O136" s="3" t="s">
         <v>8</v>
@@ -3783,20 +5137,76 @@
         <v>805825</v>
       </c>
     </row>
-    <row r="148" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="H138" t="s">
+        <v>4</v>
+      </c>
+      <c r="I138">
+        <v>256</v>
+      </c>
+      <c r="J138">
+        <v>1029574</v>
+      </c>
+      <c r="K138">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="139" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="H139" t="s">
+        <v>4</v>
+      </c>
+      <c r="I139">
+        <v>256</v>
+      </c>
+      <c r="J139">
+        <v>1021906</v>
+      </c>
+      <c r="K139">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="140" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="H140" t="s">
+        <v>4</v>
+      </c>
+      <c r="I140">
+        <v>256</v>
+      </c>
+      <c r="J140">
+        <v>1016502</v>
+      </c>
+      <c r="K140">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="147" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B147" t="s">
+        <v>4</v>
+      </c>
+      <c r="C147">
+        <v>256</v>
+      </c>
+      <c r="D147">
+        <v>2159342</v>
+      </c>
+      <c r="E147">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="148" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C148" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D148" s="2" t="e">
+      <c r="D148" s="2">
         <f>AVERAGE(D138:D147)</f>
-        <v>#DIV/0!</v>
+        <v>2159342</v>
       </c>
       <c r="I148" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J148" s="2" t="e">
+      <c r="J148" s="2">
         <f>AVERAGE(J138:J147)</f>
-        <v>#DIV/0!</v>
+        <v>1022660.6666666666</v>
       </c>
       <c r="O148" s="3" t="s">
         <v>8</v>

--- a/CW1/Results1024Home.xlsx
+++ b/CW1/Results1024Home.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\40168766\Documents\GitHub\ConcurrentAndParallelSystems\CW1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="9780"/>
   </bookViews>
   <sheets>
     <sheet name="Kevin1024Home" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="10">
   <si>
     <t>Image Dimensions (px)</t>
   </si>
@@ -54,7 +49,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -540,7 +535,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -551,6 +546,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -602,9 +598,6 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -652,7 +645,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -687,7 +680,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -898,8 +891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="P148" sqref="P148"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5179,7 +5172,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="147" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
         <v>4</v>
       </c>
@@ -5192,8 +5185,20 @@
       <c r="E147">
         <v>15</v>
       </c>
-    </row>
-    <row r="148" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="N147" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="O147" s="4">
+        <v>256</v>
+      </c>
+      <c r="P147" s="4">
+        <v>952495</v>
+      </c>
+      <c r="Q147" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="148" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C148" s="3" t="s">
         <v>8</v>
       </c>
@@ -5211,9 +5216,9 @@
       <c r="O148" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P148" s="2" t="e">
+      <c r="P148" s="2">
         <f>AVERAGE(P138:P147)</f>
-        <v>#DIV/0!</v>
+        <v>952495</v>
       </c>
     </row>
   </sheetData>
